--- a/Völker.xlsx
+++ b/Völker.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="27315" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="27315" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Völkerliste" sheetId="1" r:id="rId1"/>
+    <sheet name="Baustil" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Volk</t>
   </si>
@@ -108,7 +108,52 @@
     <t>Ökokommunisten (Ökoanarchisten?)</t>
   </si>
   <si>
-    <t>Aristokratie</t>
+    <t>Technokratie</t>
+  </si>
+  <si>
+    <t>Stamm</t>
+  </si>
+  <si>
+    <t>Telekinefische</t>
+  </si>
+  <si>
+    <t>evtl leichtes Schwarmbewusstsein. Halten Wasserschnecken als Haustiere/Nutztiere</t>
+  </si>
+  <si>
+    <t>Grundlegendes Konzept</t>
+  </si>
+  <si>
+    <t>Ausführungen/Begründungen/etc</t>
+  </si>
+  <si>
+    <t>Man stelle sich ein Haus vor: Die Seitenwände sind wie bei einem Baumstamm(holz)haus aus runden waagrechten Stämmen, nur aus Stein. Damit diese fixiert werden, gibt es Füllmaterial, ein Metall, dass die "Hohlräume" ausfüllt und es anschliessend so aussieht, als wäre die Wand flach. Schneidet man eine Wand im Querschnitt, sieht man die Steinstämme (als hätte man ein Steinbaum gefällt) und die metallige Ummantelung. Grünlich/Bläuliches Metall. Ärmere Orks, haben weniger feines Metall und weniger schön Flache Wände. Reiche Häuser besitzen immer zwei Flügel und ein Balkon gegen vorne, welche die Arme und die Gesichtsform symbolisieren.</t>
+  </si>
+  <si>
+    <t>Baumstämme aus Stein. Quergelegte Säulen, jedoch Prinzip von Säulen unbekannt. Stein und Metall dominiert. Prunkbauten ähneln dem Aufbau des orkischen Körpers. Statuen existieren nicht. Heldenbilder werden wie Fresken dargestellt.</t>
+  </si>
+  <si>
+    <t>Orkisches Prinzip</t>
+  </si>
+  <si>
+    <t>Folgen der orkischen Tradition. Sie können sich jedoch häufig nicht die feine Ausarbeitungen leisten und haben dementsprechend eher schiefe Häuser. Säulen sind ein Konzept und als menschlich angesehen und auch akzeptiert (wenn auch belächelt seitens der Orks).</t>
+  </si>
+  <si>
+    <t>Löcher und Slums</t>
+  </si>
+  <si>
+    <t>Aufgrund mangelnder ökonomischer Mittel und mangelndem völkischen Selbstbewusstseins bleibt selten anderes übrig, und so hat es sich eingebürgert über die Jahre. Opportunistisch nimmt man die Materialien die Verfügbar sind und baut daraus ein Unterstand. Aus Sicherheitsgründen werden selten Mauern ausgehöhlt und als Unterschlupf missbraucht (mit gravierenden Folgen sollten die Bewohner entdeckt werden).</t>
+  </si>
+  <si>
+    <t>Berge, Stein und Höhen. Blaues magisches Feuer. Windkanäle zur Belüftung, alles Eckig</t>
+  </si>
+  <si>
+    <t>Alles was das Wasser bietet, nämlich Schiffe, Schilf und kein Schatten</t>
+  </si>
+  <si>
+    <t>80% aller Bauten sind unterirdisch im Stein. Ewigs lange Treppen, Gänge und Hallen sind typisch. Immer erhellt durch bläuliches Licht um Licht aus dem Himmel darzustellen. Verzweigtes System an Windkanälen zur Belüftung und Abwasserrinnen, damit das Wasser und die kondensierte Luftfeuchtigkeit abfliesst. Überall warm, darum im Gebirge um kalte Luft zur Kühlung in die Gänge zu leiten. Riesige unterirdischen Wasserkanäle um Handel zu betreiben. 20% der Bauten im schneebedeckten Hochgebirge oben. Eckige graue Türme mit blauem Licht. Keine erwähnten/entdeckten Nahrungsproduktionen ausser dem Handel mit den Seeelfen.</t>
+  </si>
+  <si>
+    <t>Alle leben auf Schiffen, relativ stationären Schiffsinseln. Ein Drittel sicher so gebaut, dass sie losgelöst werden können und auf Kaperfahrt gefahren werden kann. Ein Drittel plattformähnliche Gebilde mit Unterständen oder Gärten, und der letzte Drittel kleinere Schiffe oder seltsame Formen um entweder Fischfang zu betreiben oder experimentellen Seeelfen ihre Kreativität zu ermöglichen. Alles aus Holz. Wenige Steinwerkzeuge und wenige magische Gegenstände. Beides kommt nur vom ausgiebigen Handel mit den Bergelfen. Wichtigstes erhandeltes Gut: Segel/Stoff um die Schiffskommunen zu beschatten und anzutreiben.</t>
   </si>
 </sst>
 </file>
@@ -144,8 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -447,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +646,9 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -619,6 +670,20 @@
       </c>
       <c r="C13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -628,13 +693,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="112.140625" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Völker.xlsx
+++ b/Völker.xlsx
@@ -1,22 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\RichiFlippiGame2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B70FF0-D201-47F3-9C08-FE7FBD8455A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="27315" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Völkerliste" sheetId="1" r:id="rId1"/>
     <sheet name="Baustil" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Forschung, Technik, Magie" sheetId="3" r:id="rId3"/>
+    <sheet name="Gesellschaftliche Probleme" sheetId="4" r:id="rId4"/>
+    <sheet name="Essen und Trinken" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={65866E6E-CFCE-425C-9115-05E765821EEA}</author>
+  </authors>
+  <commentList>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{65866E6E-CFCE-425C-9115-05E765821EEA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Orange heisst: neue Idee die noch nicht (ausreichend) besprochen wurde</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>Volk</t>
   </si>
@@ -154,19 +180,227 @@
   </si>
   <si>
     <t>Alle leben auf Schiffen, relativ stationären Schiffsinseln. Ein Drittel sicher so gebaut, dass sie losgelöst werden können und auf Kaperfahrt gefahren werden kann. Ein Drittel plattformähnliche Gebilde mit Unterständen oder Gärten, und der letzte Drittel kleinere Schiffe oder seltsame Formen um entweder Fischfang zu betreiben oder experimentellen Seeelfen ihre Kreativität zu ermöglichen. Alles aus Holz. Wenige Steinwerkzeuge und wenige magische Gegenstände. Beides kommt nur vom ausgiebigen Handel mit den Bergelfen. Wichtigstes erhandeltes Gut: Segel/Stoff um die Schiffskommunen zu beschatten und anzutreiben.</t>
+  </si>
+  <si>
+    <t>Atheistisch</t>
+  </si>
+  <si>
+    <t>Die einige bestehende Orkkultur, alle anderen Orkkulturen sind über die Jahre verschwunden</t>
+  </si>
+  <si>
+    <t>Mischung aus allen Elfenkulturen, alle folgen ihren Traditionen soweit nicht unterdrückt durch Orks</t>
+  </si>
+  <si>
+    <t>Ursprünglich Mischung aus allen Menschenkulturen, angepasst an Orkkultur, wenig traditionalität noch vorhanden, wandel zu eigener Kultur</t>
+  </si>
+  <si>
+    <t>Forschung</t>
+  </si>
+  <si>
+    <t>Technik</t>
+  </si>
+  <si>
+    <t>Magie</t>
+  </si>
+  <si>
+    <t>"physische" Technik hinter Orks, Magie als Teil der Technik gerade entdeckt</t>
+  </si>
+  <si>
+    <t>Ausgeprägte Empirie, restriktion durch Staat, Erklärung der Welt</t>
+  </si>
+  <si>
+    <t>Betrieben als Kampfsport, Freizeit nicht Alltag</t>
+  </si>
+  <si>
+    <t>Seit 200 Jahren stabil ohne Krieg, keinerlei Art mit Aufständen umzugehen, Fokus nur noch auf Selbst, Intrige etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übervölkerung des "Himmels" vermeiden </t>
+  </si>
+  <si>
+    <t>Probleme</t>
+  </si>
+  <si>
+    <t>Lösungen</t>
+  </si>
+  <si>
+    <t>Zwischen Zorn der Orks und zuneigung zu Seeelfen, neuartige Technik mit Magie aber STRENG verboten im Imperium</t>
+  </si>
+  <si>
+    <t>"physische" Technik, Zahnräder etc, keine Magie in der Technik, Idee käm ihnen nicht</t>
+  </si>
+  <si>
+    <t>Befreiung aus Sklaverei, Selbstbewusstsein des Volkes</t>
+  </si>
+  <si>
+    <t>Noch härter gegen Elfen,  in Provinzen stark, dezentralen Staat fördern</t>
+  </si>
+  <si>
+    <t>Viel Heilkunst, wenige Kinder</t>
+  </si>
+  <si>
+    <t>Auf Heilung fokussiert</t>
+  </si>
+  <si>
+    <t>Als Teil des Linkshändertum</t>
+  </si>
+  <si>
+    <t>Religiös geprägt</t>
+  </si>
+  <si>
+    <t>Viel erklärung durch Religion, Konflikt mit Empirie</t>
+  </si>
+  <si>
+    <t>Inexistent, "Erfindung des Rades"</t>
+  </si>
+  <si>
+    <t>Unteriridische Häfen</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Trinken</t>
+  </si>
+  <si>
+    <t>Beschaffung</t>
+  </si>
+  <si>
+    <t>Auf Pilzbasis</t>
+  </si>
+  <si>
+    <t>Landwirschaft</t>
+  </si>
+  <si>
+    <t>Kannibalismus</t>
+  </si>
+  <si>
+    <t>Jagd</t>
+  </si>
+  <si>
+    <t>Vegetarisch, Kulte probieren Elfenfl.</t>
+  </si>
+  <si>
+    <t>Streng Religiös</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linkshänder, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alle Toten zu Göttern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Individuelle Tüftler, Fokus auf Technik, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wenig Erklärung der Natur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mehr Rechte im Imperium, Aufsteiger aber belächelt, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ihre Religion im Imperium einfliessen lassen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aufstände, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menschen auf ihre Seite bekommen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hastige Armee, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viel Hilfe durch Menschen in Provinz nötig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Überreaktion</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,14 +423,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,14 +440,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Richard von Eckardstein" id="{67528776-BE8E-46D7-95CA-B0C8D5A6EB5B}" userId="20a89772de82a93b" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,9 +494,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +529,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,9 +581,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,24 +772,33 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E13" dT="2019-09-19T05:57:19.07" personId="{67528776-BE8E-46D7-95CA-B0C8D5A6EB5B}" id="{65866E6E-CFCE-425C-9115-05E765821EEA}">
+    <text>Orange heisst: neue Idee die noch nicht (ausreichend) besprochen wurde</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="136.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="117.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -543,8 +831,14 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -557,8 +851,11 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -571,8 +868,14 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -586,7 +889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -597,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -611,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -622,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -636,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -650,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -661,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -671,8 +974,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -688,25 +994,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="112.140625" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="112.1796875" customWidth="1"/>
+    <col min="3" max="3" width="125.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +1025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,7 +1036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -739,7 +1047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -750,7 +1058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -761,7 +1069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -779,13 +1087,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="56.1796875" customWidth="1"/>
+    <col min="3" max="3" width="73.26953125" customWidth="1"/>
+    <col min="4" max="4" width="38.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37732EAA-3EF6-45E8-9C8E-006E1ADB0F99}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="102.1796875" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F9D582-17F9-43AC-B670-A175FC16A679}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>